--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322259.061560525</v>
+        <v>319653.9938601675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2989156.853416515</v>
+        <v>2995243.613506387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20349704.61069184</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4821032.195206849</v>
+        <v>4812737.401672007</v>
       </c>
     </row>
     <row r="11">
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.61706312961832</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.61706312961832</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="G8" t="n">
         <v>25.62029119463083</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>21.81976115797297</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>25.62029119463083</v>
@@ -1342,7 +1342,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>19.84491174912431</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,52 +1379,52 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H11" t="n">
+      <c r="S11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="I11" t="n">
+      <c r="T11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="X12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="S12" t="n">
+      <c r="Y12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="U12" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.2968606583479769</v>
       </c>
-      <c r="F13" t="n">
+      <c r="J13" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.62029119463083</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G15" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>21.81976115797297</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,64 +1853,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="W17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H17" t="n">
+      <c r="X17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I17" t="n">
+      <c r="Y17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,52 +1932,52 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>27.59002526031614</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,25 +2123,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>26.18187459043808</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>32.91133865957915</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2853856434421</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>45.93901961000827</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>196.0929612559941</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>21.32462586900771</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>55.76421122175159</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>179.7283339446665</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,59 +3035,59 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F32" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="G32" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>74.83605878352238</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>84.95946628928495</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,49 +3205,49 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,64 +3275,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>189.7190331592112</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>133.2720255857585</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
         <v>215.3939976830282</v>
@@ -3408,7 +3408,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.84991521806154</v>
+        <v>194.6371412718335</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="W38" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="X38" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>33.26513104358009</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>209.0513475444858</v>
+      </c>
+      <c r="W39" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="V39" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.30348359856716</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="G41" t="n">
-        <v>177.9933921796109</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X41" t="n">
-        <v>213.4242636173429</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="Y41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>18.83779130226087</v>
+        <v>141.7123137227687</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>65.87777657221105</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.413711578255</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093952</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="C8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="D8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="E8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="F8" t="n">
         <v>91.75685858698967</v>
@@ -4811,10 +4811,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
         <v>102.4811647785233</v>
@@ -4823,31 +4823,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>24.84391873418747</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>24.84391873418747</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>24.84391873418747</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
         <v>2.80375594835618</v>
@@ -4893,40 +4893,40 @@
         <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
+        <v>26.38889993046976</v>
+      </c>
+      <c r="O9" t="n">
         <v>51.75298821315428</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="P9" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4972,22 +4972,22 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R10" t="n">
-        <v>47.97407071350496</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09498869872634</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T10" t="n">
         <v>2.049623295570466</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
         <v>2.049623295570466</v>
@@ -5048,43 +5048,43 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>52.77779986093951</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N11" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>102.4811647785233</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T11" t="n">
-        <v>102.4811647785233</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M12" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="N12" t="n">
+        <v>26.38889993046976</v>
+      </c>
+      <c r="O12" t="n">
         <v>51.75298821315428</v>
-      </c>
-      <c r="N12" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="O12" t="n">
-        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5142,28 +5142,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X12" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C13" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D13" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E13" t="n">
-        <v>102.1813055276668</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F13" t="n">
-        <v>76.30222351288816</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G13" t="n">
+        <v>50.72300074896609</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50.72300074896609</v>
+      </c>
+      <c r="I13" t="n">
         <v>50.42314149810954</v>
-      </c>
-      <c r="H13" t="n">
-        <v>50.42314149810954</v>
-      </c>
-      <c r="I13" t="n">
-        <v>24.54405948333093</v>
       </c>
       <c r="J13" t="n">
         <v>24.54405948333093</v>
@@ -5218,31 +5218,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5285,13 +5285,13 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5300,16 +5300,16 @@
         <v>92.38954941029624</v>
       </c>
       <c r="R14" t="n">
-        <v>92.38954941029624</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S14" t="n">
         <v>66.51046739551762</v>
       </c>
       <c r="T14" t="n">
+        <v>66.51046739551762</v>
+      </c>
+      <c r="U14" t="n">
         <v>40.631385380739</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14.75230336596039</v>
       </c>
       <c r="V14" t="n">
         <v>14.75230336596039</v>
@@ -5318,10 +5318,10 @@
         <v>14.75230336596039</v>
       </c>
       <c r="X14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.75230336596039</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G15" t="n">
-        <v>24.84391873418747</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H15" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I15" t="n">
         <v>2.80375594835618</v>
@@ -5358,19 +5358,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>2.049623295570466</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N15" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
         <v>77.1170764958388</v>
@@ -5379,28 +5379,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="D16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="E16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="F16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5446,40 +5446,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.68686933990632</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R16" t="n">
-        <v>53.80778732512771</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S16" t="n">
-        <v>27.92870531034908</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.049623295570466</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>70.01461603622408</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M17" t="n">
         <v>55.73185102583861</v>
@@ -5528,7 +5528,7 @@
         <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5549,16 +5549,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F18" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
         <v>2.207202020825291</v>
@@ -5595,49 +5595,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L18" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M18" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y18" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5695,13 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T19" t="n">
         <v>85.81333917329844</v>
-      </c>
-      <c r="S19" t="n">
-        <v>85.81333917329844</v>
-      </c>
-      <c r="T19" t="n">
-        <v>57.94462678914073</v>
       </c>
       <c r="U19" t="n">
         <v>57.94462678914073</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>274.7999090013961</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.0815197256143</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C24" t="n">
-        <v>588.0815197256143</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D24" t="n">
-        <v>588.0815197256143</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E24" t="n">
-        <v>428.8440647201588</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F24" t="n">
-        <v>282.3095067470438</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G24" t="n">
-        <v>143.5786813296593</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>372.2103388526884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>212.9728838472329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>66.43832587411791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>66.43832587411791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>66.43832587411791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.1447485139397</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.3052180530201</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C29" t="n">
-        <v>215.3052180530201</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D29" t="n">
-        <v>215.3052180530201</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23151981464226</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F29" t="n">
-        <v>17.23151981464226</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
-        <v>120.2465257255646</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L29" t="n">
-        <v>300.3223773102232</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M29" t="n">
-        <v>513.5624350164212</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>712.3810405894649</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>861.5759907321129</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>650.444607311663</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>650.444607311663</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>650.444607311663</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>650.444607311663</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>432.8749126823416</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>432.8749126823416</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.3052180530201</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>485.6003549470909</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C30" t="n">
-        <v>311.1473256659639</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D30" t="n">
-        <v>311.1473256659639</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E30" t="n">
-        <v>311.1473256659639</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F30" t="n">
-        <v>164.6127676928488</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>164.6127676928488</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>108.2852816102715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>17.98565246742797</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>142.5890798724797</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>142.5890798724797</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>355.8291375786776</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>569.0691952848756</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>609.5379546054328</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>861.5759907321129</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>861.5759907321129</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>861.5759907321129</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>861.5759907321129</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.815691967159</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>44.54564482235524</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>83.73368301457742</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4245336700137</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.763810304913</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>151.763810304913</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>452.3709090732851</v>
+        <v>426.43660147347</v>
       </c>
       <c r="C32" t="n">
-        <v>452.3709090732851</v>
+        <v>426.43660147347</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3709090732851</v>
+        <v>426.43660147347</v>
       </c>
       <c r="E32" t="n">
-        <v>452.3709090732851</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
         <v>17.23151981464226</v>
@@ -6719,31 +6719,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W32" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X32" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y32" t="n">
-        <v>633.9146807345644</v>
+        <v>644.0062961027915</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>426.43660147347</v>
+        <v>268.0306603177695</v>
       </c>
       <c r="C33" t="n">
-        <v>251.983572192343</v>
+        <v>93.57763103664249</v>
       </c>
       <c r="D33" t="n">
-        <v>103.0491625310917</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E33" t="n">
-        <v>103.0491625310917</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
+        <v>17.23151981464226</v>
+      </c>
+      <c r="M33" t="n">
         <v>183.0578391930369</v>
-      </c>
-      <c r="M33" t="n">
-        <v>396.2978968992348</v>
       </c>
       <c r="N33" t="n">
         <v>396.2978968992348</v>
@@ -6816,13 +6816,13 @@
         <v>644.0062961027915</v>
       </c>
       <c r="W33" t="n">
-        <v>426.43660147347</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X33" t="n">
-        <v>426.43660147347</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y33" t="n">
-        <v>426.43660147347</v>
+        <v>436.2459973378375</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
         <v>727.0437002418422</v>
@@ -6895,13 +6895,13 @@
         <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>644.0062961027915</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>644.0062961027915</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>644.0062961027915</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>644.0062961027915</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>426.43660147347</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
         <v>17.23151981464226</v>
@@ -6968,19 +6968,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>861.5759907321129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V35" t="n">
-        <v>861.5759907321129</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W35" t="n">
-        <v>861.5759907321129</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X35" t="n">
-        <v>861.5759907321129</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y35" t="n">
-        <v>644.0062961027915</v>
+        <v>208.8669068441485</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>152.4612591001897</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>365.7013168063877</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N36" t="n">
-        <v>578.9413745125856</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O36" t="n">
-        <v>792.1814322187836</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
         <v>792.1814322187836</v>
@@ -7038,22 +7038,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>586.9891167356675</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>452.3709090732851</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U36" t="n">
-        <v>452.3709090732851</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V36" t="n">
-        <v>234.8012144439637</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W36" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="X36" t="n">
         <v>17.23151981464226</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C37" t="n">
         <v>727.0437002418422</v>
@@ -7138,7 +7138,7 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.23151981464226</v>
+        <v>447.4031231009394</v>
       </c>
       <c r="C38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="D38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>229.833428471618</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7181,10 +7181,10 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O38" t="n">
         <v>771.915935440062</v>
@@ -7196,28 +7196,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>710.1930433168102</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>669.9406037026066</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="T38" t="n">
-        <v>669.9406037026066</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="U38" t="n">
-        <v>669.9406037026066</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="V38" t="n">
-        <v>452.3709090732851</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="W38" t="n">
-        <v>234.8012144439637</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="X38" t="n">
-        <v>17.23151981464226</v>
+        <v>664.9728177302609</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.23151981464226</v>
+        <v>447.4031231009394</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
         <v>17.23151981464226</v>
@@ -7263,7 +7263,7 @@
         <v>569.0691952848756</v>
       </c>
       <c r="N39" t="n">
-        <v>782.3092529910735</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O39" t="n">
         <v>861.5759907321129</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>485.9720515415478</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U39" t="n">
-        <v>268.4023569122264</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V39" t="n">
-        <v>50.83266228290498</v>
+        <v>650.4130134144505</v>
       </c>
       <c r="W39" t="n">
-        <v>50.83266228290498</v>
+        <v>432.843318785129</v>
       </c>
       <c r="X39" t="n">
-        <v>50.83266228290498</v>
+        <v>224.9918185795962</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.83266228290498</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7348,22 +7348,22 @@
         <v>151.763810304913</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>61.98251334854848</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U40" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V40" t="n">
         <v>17.23151981464226</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>196.8652463213176</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C41" t="n">
-        <v>196.8652463213176</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="D41" t="n">
-        <v>196.8652463213176</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>196.8652463213176</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="F41" t="n">
-        <v>196.8652463213176</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
         <v>17.07394108938743</v>
@@ -7412,13 +7412,13 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
         <v>614.8420490346726</v>
@@ -7430,31 +7430,31 @@
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>843.6054391011446</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>628.0253748412023</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y41" t="n">
-        <v>412.4453105812599</v>
+        <v>448.2340696092722</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>302.339324479887</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="C42" t="n">
-        <v>302.339324479887</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="D42" t="n">
-        <v>302.339324479887</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="E42" t="n">
-        <v>302.339324479887</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>155.8047665067719</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>179.0789763803525</v>
+        <v>150.4324330125338</v>
       </c>
       <c r="M42" t="n">
-        <v>390.368997361522</v>
+        <v>361.7224539937033</v>
       </c>
       <c r="N42" t="n">
-        <v>390.368997361522</v>
+        <v>573.0124749748728</v>
       </c>
       <c r="O42" t="n">
-        <v>601.6590183426915</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
         <v>784.3024959560423</v>
@@ -7515,25 +7515,25 @@
         <v>752.5275250222574</v>
       </c>
       <c r="S42" t="n">
-        <v>733.4994529997716</v>
+        <v>609.3837737871374</v>
       </c>
       <c r="T42" t="n">
-        <v>733.4994529997716</v>
+        <v>609.3837737871374</v>
       </c>
       <c r="U42" t="n">
-        <v>733.4994529997716</v>
+        <v>609.3837737871374</v>
       </c>
       <c r="V42" t="n">
-        <v>517.9193887398293</v>
+        <v>609.3837737871374</v>
       </c>
       <c r="W42" t="n">
-        <v>302.339324479887</v>
+        <v>393.8037095271951</v>
       </c>
       <c r="X42" t="n">
-        <v>302.339324479887</v>
+        <v>393.8037095271951</v>
       </c>
       <c r="Y42" t="n">
-        <v>302.339324479887</v>
+        <v>186.0434107622412</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="C43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="D43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="E43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="F43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="G43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="I43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="J43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="K43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="L43" t="n">
-        <v>44.38806609710041</v>
+        <v>746.4788889868139</v>
       </c>
       <c r="M43" t="n">
-        <v>83.57610428932259</v>
+        <v>785.6669271790361</v>
       </c>
       <c r="N43" t="n">
-        <v>127.2669549447589</v>
+        <v>829.3577778344724</v>
       </c>
       <c r="O43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U43" t="n">
-        <v>17.07394108938743</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V43" t="n">
-        <v>17.07394108938743</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W43" t="n">
-        <v>17.07394108938743</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.07394108938743</v>
+        <v>719.1647639791009</v>
       </c>
     </row>
     <row r="44">
@@ -8216,16 +8216,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8313,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8459,13 +8459,13 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8541,7 +8541,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>168.2165356390753</v>
@@ -8550,7 +8550,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O11" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8933,16 +8933,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>165.6020652806523</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
         <v>262.2416917349371</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9255,13 +9255,13 @@
         <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,16 +10118,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>430.2399379127967</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>357.5280316050465</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>346.7357097663615</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>183.4737791116739</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>179.4319144471037</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>357.5280316050465</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
         <v>357.9902421274727</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>148.5262779896823</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N36" t="n">
-        <v>346.7357097663615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10911,10 +10911,10 @@
         <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>211.409123942969</v>
       </c>
       <c r="O39" t="n">
-        <v>222.6636563040802</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11069,7 @@
         <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>333.8446085143028</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>175.5720315305082</v>
+        <v>273.2599271769918</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>396.2589826120931</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22951,16 +22951,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>132.8841224430275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>396.2589826120931</v>
+        <v>406.2496818266379</v>
       </c>
       <c r="G8" t="n">
         <v>389.6824463205042</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>67.5768716934421</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>60.54175205706355</v>
@@ -23230,7 +23230,7 @@
         <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>208.1006776791572</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>384.3096932574806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="13">
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.1371019882212</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>129.8301837326275</v>
+        <v>155.1536142689103</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>197.9002363007199</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S14" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>225.7253617132057</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>357.155447408783</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>119.4489211987531</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G15" t="n">
         <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>90.41568307852349</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>139.0314613895673</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.59569076746357</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>394.5240408470375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>303.4509642208484</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="18">
@@ -23820,13 +23820,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>120.7679181440974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
         <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23935,16 +23935,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>154.8446320166601</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
         <v>224.5476180635119</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,25 +24011,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>86.05356964605838</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,28 +24206,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>393.4483115052977</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,19 +24291,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>79.3241055769173</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>33.22632384066939</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,16 +24339,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>108.6003065196844</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>43.4576132414068</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,19 +24573,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>83.83962992671059</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24640,10 +24640,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>181.4061717904701</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>185.8374088162677</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24728,10 +24728,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,19 +24768,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.7445865243762</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>56.47123301474488</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,10 +24813,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24880,13 +24880,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>203.0055077188141</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,13 +24923,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F32" t="n">
-        <v>191.4820480586832</v>
+        <v>217.1570125825002</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>72.60900678111638</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>60.10974610409893</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>193.0148085042694</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>20.75685641119472</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>66.89270310906306</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
         <v>17.40658946639704</v>
@@ -25296,7 +25296,7 @@
         <v>36.30098547789137</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>16.05395204426628</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,10 +25436,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>169.1701543681838</v>
+        <v>14.38292831441183</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>112.3582607871067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>154.3371029954408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>78.97031319291636</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>17.40658946639704</v>
+        <v>23.74923960493945</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>193.4517821243685</v>
       </c>
       <c r="G41" t="n">
-        <v>237.3093453355242</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>156.3068370611261</v>
+        <v>181.7470092843135</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.8136750387107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>152.8453798015769</v>
+        <v>29.97085738106912</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,7 +25764,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350049.7958156169</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350049.7958156169</v>
+        <v>350049.7958156168</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351685.0495668239</v>
+        <v>351685.049566824</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488398.3911706117</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488398.3911706117</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488398.3911706115</v>
+        <v>488398.3911706117</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
+        <v>59129.07304229552</v>
+      </c>
+      <c r="D2" t="n">
         <v>63121.07616893066</v>
       </c>
-      <c r="D2" t="n">
-        <v>63121.07616893067</v>
-      </c>
       <c r="E2" t="n">
-        <v>63121.07616893067</v>
+        <v>63121.07616893066</v>
       </c>
       <c r="F2" t="n">
         <v>63121.07616893067</v>
       </c>
       <c r="G2" t="n">
-        <v>63415.76181874353</v>
+        <v>63415.7618187435</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
         <v>88052.58645764727</v>
       </c>
-      <c r="L2" t="n">
-        <v>88052.58645764728</v>
-      </c>
       <c r="M2" t="n">
-        <v>88052.58645764728</v>
+        <v>88052.58645764725</v>
       </c>
       <c r="N2" t="n">
         <v>88052.58645764728</v>
       </c>
       <c r="O2" t="n">
-        <v>87796.12542771841</v>
+        <v>87796.12542771842</v>
       </c>
       <c r="P2" t="n">
         <v>59129.07304229552</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8277.165051769143</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>11244.18577987448</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>11299.21161664248</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>15899.57777605044</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>15899.57777605043</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>15851.6895168862</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26494,7 +26494,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="K5" t="n">
-        <v>13095.95505912812</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15002.70297086521</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>8414.411632653479</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>16691.57668442264</v>
+        <v>8463.818372101341</v>
       </c>
       <c r="E6" t="n">
-        <v>50319.17668442264</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="F6" t="n">
-        <v>50319.17668442264</v>
+        <v>50049.84942588953</v>
       </c>
       <c r="G6" t="n">
-        <v>49899.20210488047</v>
+        <v>49628.5935865654</v>
       </c>
       <c r="H6" t="n">
-        <v>2628.454590704208</v>
+        <v>2236.224345158615</v>
       </c>
       <c r="I6" t="n">
-        <v>60212.24173303586</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="J6" t="n">
-        <v>60212.24173303583</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="K6" t="n">
-        <v>59057.05362246872</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="L6" t="n">
-        <v>59057.05362246872</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="M6" t="n">
-        <v>59057.05362246872</v>
+        <v>58679.3269849498</v>
       </c>
       <c r="N6" t="n">
-        <v>59057.05362246874</v>
+        <v>58679.32698494983</v>
       </c>
       <c r="O6" t="n">
-        <v>58968.24068289775</v>
+        <v>58591.62910884902</v>
       </c>
       <c r="P6" t="n">
-        <v>48630.30297086521</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>215.3939976830282</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N8" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>25.62029119463083</v>
@@ -35270,7 +35270,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,7 +35343,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O11" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="O12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35653,16 +35653,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O14" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>25.62029119463083</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
         <v>26.47527676494984</v>
       </c>
       <c r="M17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36601,10 +36601,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,16 +36838,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>200.8268743162057</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>40.87753466722948</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>40.87753466722953</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>167.5013327054491</v>
+      </c>
+      <c r="N33" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>215.3939976830282</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>9.971898209808174</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>215.3939976830282</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37631,10 +37631,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
+        <v>80.06741185963574</v>
+      </c>
+      <c r="O39" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="O39" t="n">
-        <v>80.06741185963574</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,7 +37789,7 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>104.4315449177119</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>37.01765175063407</v>
+        <v>134.7055473971176</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
